--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_AppropriationGroupProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_FOU_AppropriationGroupProfile_Regression_001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8EC9CC-90FD-4954-B6FF-469EE06FF1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82353AC-0865-4E3F-BB97-BF1ED56A7489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
